--- a/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
+++ b/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC011F1-C5CA-EB49-A1A5-71714EB193EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C022983-0690-5949-9642-447EAEF8FE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-18880" windowWidth="22360" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,13 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="235" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,7 +535,7 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -551,7 +549,7 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -565,96 +563,81 @@
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,15 +645,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -875,6 +849,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -887,14 +870,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8831E31-2A91-4E0B-B823-0BFA5718552C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -913,6 +888,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
   <ds:schemaRefs>

--- a/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
+++ b/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC011F1-C5CA-EB49-A1A5-71714EB193EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-18880" windowWidth="22360" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="-18885" windowWidth="22365" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,20 +421,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -449,7 +448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -463,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -477,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -491,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -505,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -519,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -533,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -547,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -561,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -572,88 +571,88 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
   </sheetData>
@@ -662,12 +661,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,20 +877,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -914,12 +916,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
+++ b/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C022983-0690-5949-9642-447EAEF8FE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B4728-DE50-A14F-941D-D939F1CE25C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-18880" windowWidth="22360" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -500,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -645,6 +645,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -849,15 +858,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -870,6 +870,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8831E31-2A91-4E0B-B823-0BFA5718552C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -888,14 +896,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
   <ds:schemaRefs>

--- a/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
+++ b/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevanskorna/PycharmProjects/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rickm\Documents\Git\Flex\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B4728-DE50-A14F-941D-D939F1CE25C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D796C8C-E1C1-4DD0-A4FB-E22731601B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-18880" windowWidth="22360" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>value</t>
   </si>
@@ -109,7 +109,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -423,17 +423,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -489,40 +489,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -531,109 +531,165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -645,12 +701,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,20 +917,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -897,12 +956,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
+++ b/data/input_behavior/BehaviorScenario_HouseholdComposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rickm\Documents\Git\Flex\data\input_behavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D796C8C-E1C1-4DD0-A4FB-E22731601B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C61166-B01E-3548-90C7-56C907A86BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4340" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>value</t>
   </si>
@@ -53,9 +53,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -102,14 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -125,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -424,16 +432,16 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -447,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -461,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -475,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -489,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -503,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -517,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -531,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -545,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -570,10 +578,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -584,10 +592,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -598,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -615,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -626,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -640,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -654,10 +662,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -668,32 +676,64 @@
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -712,6 +752,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -916,15 +965,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
   <ds:schemaRefs>
@@ -937,6 +977,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8831E31-2A91-4E0B-B823-0BFA5718552C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -953,12 +1001,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>